--- a/data/trans_bre/P19C01-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.56439174569298</v>
+        <v>-3.573626110899401</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.613898474323717</v>
+        <v>1.359935372063104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.988365952060086</v>
+        <v>-5.655328711665928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.68811653846199</v>
+        <v>-6.423953424685033</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.08938022732266773</v>
+        <v>-0.09098658675701948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04597104631495418</v>
+        <v>0.03274859343938927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1097401629030608</v>
+        <v>-0.1012129402717237</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.09338602467495347</v>
+        <v>-0.09037237662357205</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.77723454671661</v>
+        <v>11.76926950035345</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.21282005180571</v>
+        <v>17.70887083031237</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.124285331630889</v>
+        <v>9.679058471453384</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.681743862506253</v>
+        <v>4.554742521744383</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3893593183738914</v>
+        <v>0.3540969121588697</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5229440343547721</v>
+        <v>0.5309915118525972</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1937419157492693</v>
+        <v>0.2026124502357662</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.0723062982862821</v>
+        <v>0.0698444336961165</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.795576270291149</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.265569098856613</v>
+        <v>3.265569098856635</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2285143170752809</v>
@@ -749,7 +749,7 @@
         <v>0.1679497286162646</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.05015104705747782</v>
+        <v>0.05015104705747817</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.3596211591992793</v>
+        <v>-0.8840751390398905</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.71066517371746</v>
+        <v>1.046389057453108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3667611196886985</v>
+        <v>-1.099360833395105</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.423064916647504</v>
+        <v>-2.87425451294688</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0094413715873355</v>
+        <v>-0.02403494613831636</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03895051629882065</v>
+        <v>0.0261586928017564</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008038264688662372</v>
+        <v>-0.0185225458312111</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03467220226951893</v>
+        <v>-0.04189000686802029</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.0835865828814</v>
+        <v>14.26760879073173</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.53802774780962</v>
+        <v>17.10138133598783</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.32545575874391</v>
+        <v>15.73032859525619</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.449061842994492</v>
+        <v>9.345911177179646</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5801655197386414</v>
+        <v>0.5533433915460436</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5359413467180377</v>
+        <v>0.525964338472359</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4044249974566647</v>
+        <v>0.3797070628685087</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1545253530540786</v>
+        <v>0.1521399463291507</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.787946894693079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4812228350432934</v>
+        <v>0.4812228350433045</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2882526039099181</v>
@@ -849,7 +849,7 @@
         <v>-0.1007484781725658</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.008652017233883393</v>
+        <v>0.008652017233883593</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1247346247028747</v>
+        <v>-1.032145304766284</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9504951782551557</v>
+        <v>-1.125284127299224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.22807071107498</v>
+        <v>-13.05910130241171</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.77463564239272</v>
+        <v>-7.463142413666206</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.004095304493958792</v>
+        <v>-0.04168570816520099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.03517384283175445</v>
+        <v>-0.0388747548241419</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3346195827199711</v>
+        <v>-0.3365806017812015</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1166263338396699</v>
+        <v>-0.1259785313156498</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.38288624637523</v>
+        <v>16.96218768392446</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.62555149069707</v>
+        <v>13.01869089291036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.590406004766166</v>
+        <v>6.317171489887488</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.658924694045407</v>
+        <v>7.720673091256418</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6971298062966683</v>
+        <v>0.6977575239142844</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5859784121134063</v>
+        <v>0.5414876726267146</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1595804414189526</v>
+        <v>0.1776189912684895</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1686255782193128</v>
+        <v>0.1485939551446736</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.102759284814328</v>
+        <v>4.71144171408653</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.994621504226043</v>
+        <v>7.253506981044334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.858909733868859</v>
+        <v>-2.074019714192742</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.635135722483795</v>
+        <v>3.59299718241909</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1493617872801413</v>
+        <v>0.1692385609465567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2739125483700526</v>
+        <v>0.2813148457159951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04845246584627468</v>
+        <v>-0.05308055794380406</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06421566916761637</v>
+        <v>0.06782323562843358</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.24702819965178</v>
+        <v>14.09494032162941</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.78600811664553</v>
+        <v>16.41617347622743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.090040477212682</v>
+        <v>8.280577452737766</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.49884826833308</v>
+        <v>12.67499397611472</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6274578213469646</v>
+        <v>0.6337199559274699</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7638495311413299</v>
+        <v>0.756340553498872</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2327964037631299</v>
+        <v>0.2418282403984218</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2487424793187316</v>
+        <v>0.2549901723217573</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.621521750027672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.135249942852511</v>
+        <v>6.1352499428525</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01841744132028568</v>
@@ -1049,7 +1049,7 @@
         <v>0.2530051667128659</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1393823981533357</v>
+        <v>0.1393823981533354</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.813086547984383</v>
+        <v>-7.884834276789548</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.415401622420139</v>
+        <v>-0.5136282269978633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.132162401602828</v>
+        <v>1.386279478899594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.006093813979424</v>
+        <v>-0.108573460506574</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2066731711779793</v>
+        <v>-0.2316890455663721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01881256668680732</v>
+        <v>-0.02228942916884736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03368232947243529</v>
+        <v>0.04141093233396541</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.02157065705421622</v>
+        <v>-0.003469657437719714</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.31916137781673</v>
+        <v>7.480102007832845</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.960173092641279</v>
+        <v>9.902185899901365</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.43231542894126</v>
+        <v>13.35823967039369</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.9693407785985</v>
+        <v>11.58640042265532</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3124057173473438</v>
+        <v>0.3076804379217408</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5462067605197276</v>
+        <v>0.5455781891363266</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5081228084984254</v>
+        <v>0.5043361773397392</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3008581762130932</v>
+        <v>0.2838825883618172</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-10.83886788100912</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-7.581738181000908</v>
+        <v>-7.581738181000897</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4259862337566358</v>
@@ -1149,7 +1149,7 @@
         <v>-0.1968072563762588</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1158186726470275</v>
+        <v>-0.1158186726470273</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-26.32137089978792</v>
+        <v>-26.15758721278018</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-25.71490514149598</v>
+        <v>-26.61689792818143</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-18.55180409643169</v>
+        <v>-17.87209780057854</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-17.92149289474867</v>
+        <v>-18.15815270034406</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5264174368990062</v>
+        <v>-0.5217893249239556</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4612634292533955</v>
+        <v>-0.4606511068173536</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3032573184468785</v>
+        <v>-0.3044751384296481</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2391738873684428</v>
+        <v>-0.2432277185620124</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-12.31810093697228</v>
+        <v>-12.38206069910252</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-11.2725841769643</v>
+        <v>-11.64332868457395</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-3.00896319818468</v>
+        <v>-3.370784504424109</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.032756501525693</v>
+        <v>4.082644880925405</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3148820221868457</v>
+        <v>-0.3177772271525986</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2484417451528878</v>
+        <v>-0.2598921978551856</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.06337230477647054</v>
+        <v>-0.06901778832604039</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09377448459401387</v>
+        <v>0.0764258385346014</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.347295178874246</v>
+        <v>-0.9835565611665287</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.373674595676907</v>
+        <v>2.39277597162443</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07881907439237905</v>
+        <v>0.1192109545250772</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.03115656908829931</v>
+        <v>-0.1716927584040052</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.04353428729317838</v>
+        <v>-0.02960639083765411</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07829275937052295</v>
+        <v>0.07562819735914948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.002728313912161904</v>
+        <v>0.002199038520330823</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.0004741530211849671</v>
+        <v>-0.002826445365872644</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.877912985260227</v>
+        <v>4.308957463575257</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.233583573268578</v>
+        <v>7.478959864105299</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.819976200452075</v>
+        <v>5.290578470255824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.692245272905645</v>
+        <v>4.625265704899546</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1336403442439394</v>
+        <v>0.1515633512592204</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2601108133586714</v>
+        <v>0.2684819007696723</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1505678249194188</v>
+        <v>0.1337591990573606</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.08548191503321587</v>
+        <v>0.08422627438986707</v>
       </c>
     </row>
     <row r="25">
